--- a/templates/template-arbeitszeit_v1.00.xlsx
+++ b/templates/template-arbeitszeit_v1.00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Datenbank\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43B206A-0E8D-44B5-AEB2-271AE9CB24FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77128180-BEA0-4BC5-B98E-93FF5BC5DABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,54 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Dieser Stundennachweis dient zur Verrechnung angefallener Kosten für Arbeitszeit und Reisezeiten.</t>
   </si>
   <si>
     <t>Die Richtigkeit der Stunden wird durch die Unterschrift bestätigt.</t>
-  </si>
-  <si>
-    <t>Di</t>
-  </si>
-  <si>
-    <t>Mi</t>
-  </si>
-  <si>
-    <t>Do</t>
-  </si>
-  <si>
-    <t>Fr</t>
-  </si>
-  <si>
-    <t>Sa</t>
-  </si>
-  <si>
-    <t>So</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>Tue</t>
-  </si>
-  <si>
-    <t>Wed</t>
-  </si>
-  <si>
-    <t>Thu</t>
-  </si>
-  <si>
-    <t>Fri</t>
-  </si>
-  <si>
-    <t>Sat</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>Mo</t>
   </si>
   <si>
     <t xml:space="preserve"> KW  </t>
@@ -208,6 +166,27 @@
       <t>UID: ATU69119508</t>
     </r>
   </si>
+  <si>
+    <t>Montag</t>
+  </si>
+  <si>
+    <t>Dienstag</t>
+  </si>
+  <si>
+    <t>Mittwoch</t>
+  </si>
+  <si>
+    <t>Donnerstag</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Samstag</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
 </sst>
 </file>
 
@@ -264,15 +243,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="78">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -908,275 +893,299 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1187,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1215,17 +1224,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,15 +1234,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1256,34 +1248,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1303,24 +1274,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1339,7 +1433,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,197 +1463,158 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="77" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,7 +2010,7 @@
   </sheetPr>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2000,268 +2055,268 @@
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="69"/>
+      <c r="A2" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
       <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="50" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="52" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="80"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
+      <c r="K10" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
     </row>
     <row r="11" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="120"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="116"/>
+      <c r="A11" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="60"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="127" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="118"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="34"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="33"/>
     </row>
     <row r="13" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="117"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="9">
         <v>0.5</v>
       </c>
@@ -2270,545 +2325,531 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="25" t="str">
+      <c r="A14" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="18" t="str">
         <f>IF((D14&lt;&gt;"")*AND(E14&lt;&gt;""),((L14-D14)+(E14-N14))*24,"")</f>
         <v/>
       </c>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="26">
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="19">
         <f>((N14-L14)*24)-M14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="25" t="str">
+      <c r="A15" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="18" t="str">
         <f>IF((D15&lt;&gt;"")*AND(E15&lt;&gt;""),((L15-D15)+(E15-N15))*24,"")</f>
         <v/>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="26">
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="19">
         <f t="shared" ref="P15:P20" si="0">((N15-L15)*24)-M15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="25" t="str">
+      <c r="A16" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="18" t="str">
         <f t="shared" ref="G16:G20" si="1">IF((D16&lt;&gt;"")*AND(E16&lt;&gt;""),((L16-D16)+(E16-N16))*24,"")</f>
         <v/>
       </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="26">
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="25" t="str">
+      <c r="A17" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="26">
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="25" t="str">
+      <c r="A18" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="26">
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="25" t="str">
+      <c r="A19" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="26">
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="25" t="str">
+      <c r="A20" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="26">
+      <c r="H20" s="116"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="32"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="124"/>
     </row>
     <row r="21" spans="1:20" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="90"/>
+      <c r="A21" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="68"/>
     </row>
     <row r="22" spans="1:20" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
+      <c r="A22" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="83"/>
+      <c r="A23" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="132"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="137"/>
+      <c r="R25" s="138"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="78"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="138"/>
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="78"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="137"/>
+      <c r="O27" s="137"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="137"/>
+      <c r="R27" s="138"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="94"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="78"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+      <c r="R28" s="138"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="78"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="78"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="138"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="78"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="137"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="138"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="78"/>
+      <c r="A32" s="139"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="137"/>
+      <c r="R32" s="138"/>
     </row>
     <row r="33" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="78"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="138"/>
     </row>
     <row r="34" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="78"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="137"/>
+      <c r="R34" s="138"/>
     </row>
     <row r="35" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="93"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="141"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="142"/>
     </row>
     <row r="36" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="15"/>
+      <c r="A36" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="130"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37"/>
@@ -2841,28 +2882,28 @@
       <c r="A46"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="O11:O13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="H11:I13"/>
+  <mergeCells count="60">
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="F5:R5"/>
+    <mergeCell ref="F6:R6"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A2:E9"/>
+    <mergeCell ref="F2:N3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A26:R26"/>
+    <mergeCell ref="A25:R25"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="F23:R23"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
@@ -2879,20 +2920,29 @@
     <mergeCell ref="A29:R29"/>
     <mergeCell ref="A28:R28"/>
     <mergeCell ref="A27:R27"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A26:R26"/>
-    <mergeCell ref="A25:R25"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="F23:R23"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="F5:R5"/>
-    <mergeCell ref="F6:R6"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A2:E9"/>
-    <mergeCell ref="F2:N3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="O11:O13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.47244094488188981" right="0.55118110236220474" top="0.70866141732283472" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.35433070866141736"/>
